--- a/PowerBI Resources/BDR.xlsx
+++ b/PowerBI Resources/BDR.xlsx
@@ -54064,10 +54064,8 @@
           <t>123.56</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
-        <is>
-          <t>122.40</t>
-        </is>
+      <c r="BT2" t="n">
+        <v>122.4</v>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
